--- a/medicine/Psychotrope/Dolce_Gusto/Dolce_Gusto.xlsx
+++ b/medicine/Psychotrope/Dolce_Gusto/Dolce_Gusto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dolce Gusto est une marque de machines expresso et de capsules de café et diverses boissons appartenant à Nestlé. Les machines sont fabriquées par Krups.
@@ -514,16 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Série Melody
-La première série de 2006 était composée des modèles KP2000 (noir / argent), KP2006 (noir / argent / rouge) et KP2002 (noir / argent / blanc), chacun d'eux fonctionnant en pression standard de 14 bar. Le dispositif lui-même est constitué d'un réservoir d'eau, d'une pompe à eau interne et d'un système de chauffage électrique. 
+          <t>Série Melody</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première série de 2006 était composée des modèles KP2000 (noir / argent), KP2006 (noir / argent / rouge) et KP2002 (noir / argent / blanc), chacun d'eux fonctionnant en pression standard de 14 bar. Le dispositif lui-même est constitué d'un réservoir d'eau, d'une pompe à eau interne et d'un système de chauffage électrique. 
 Le distributeur est placé dans le haut de l'appareil, où un levier abaisse sur le porte-capsule une plaque munie d'une aiguille creuse.
 Les machines, dès le début, utilisaient un nouveau type de capsules brevetées appelées "capsules intelligentes", contenant chacune 8 g de café moulu ou d'autres boissons chaudes ou froides.
 Fin 2008, Nestlé a lancé une nouvelle série KP21xx / Melody2, avec de nouvelles couleurs et quelques autres améliorations : 15 bars de pression au lieu de 14 ; économie d'énergie par arrêt automatique après 5 min ; certaines pièces chromées.
 Depuis septembre 2010, il existe une nouvelle série, Creativa Melody2, qui dispose d'un écran LCD, permettant de programmer et personnaliser la machine, par exemple, en réglant l'allumage sur un temps donné, ou bien le volume d'eau. Il existe des paramètres pré-programmés, propres à différentes variétés de capsules, qui peuvent être personnalisés.
-Circolo, Piccolo et Fontana
-À la mi-2009, Nestlé ajoute à la gamme la série Circolo. Cette machine, comme son nom l'indique, arbore un design arrondi, avec les mêmes spécifications techniques que les dispositifs Melody2, mais avec une lumière LED dans le réservoir d'eau.
-En septembre 2010, les deux séries précédentes ont été complétées par trois de plus : outre la Creativa mentionnée ci-dessus, une toute nouvelle machine Piccolo, de plus petite taille (KP10xx), vise une clientèle disposant de peu de place, avec un réservoir de 600 ml d'eau. Autrement, elle est techniquement identique aux machines Melody2.
-De même, la Fontana (KP30xx) a les mêmes caractéristiques, mais avec un design qui rappelle un robinet d'eau (fontana, en italien). 
 </t>
         </is>
       </c>
@@ -549,13 +562,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Capsules</t>
+          <t>Machines expresso</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chaque paquet contient 16 capsules de café moulu ou autre boisson soluble, assurant la confection de 16 tasses. Il existe aussi des capsules de thé, et même des boissons froides.
-Pour les boissons au lait, deux capsules sont nécessaires, l'une contenant le lait en poudre, l'autre le café (moulu), ou bien le thé, le chocolat (solubles).
+          <t>Circolo, Piccolo et Fontana</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la mi-2009, Nestlé ajoute à la gamme la série Circolo. Cette machine, comme son nom l'indique, arbore un design arrondi, avec les mêmes spécifications techniques que les dispositifs Melody2, mais avec une lumière LED dans le réservoir d'eau.
+En septembre 2010, les deux séries précédentes ont été complétées par trois de plus : outre la Creativa mentionnée ci-dessus, une toute nouvelle machine Piccolo, de plus petite taille (KP10xx), vise une clientèle disposant de peu de place, avec un réservoir de 600 ml d'eau. Autrement, elle est techniquement identique aux machines Melody2.
+De même, la Fontana (KP30xx) a les mêmes caractéristiques, mais avec un design qui rappelle un robinet d'eau (fontana, en italien). 
 </t>
         </is>
       </c>
@@ -581,10 +601,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Capsules</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque paquet contient 16 capsules de café moulu ou autre boisson soluble, assurant la confection de 16 tasses. Il existe aussi des capsules de thé, et même des boissons froides.
+Pour les boissons au lait, deux capsules sont nécessaires, l'une contenant le lait en poudre, l'autre le café (moulu), ou bien le thé, le chocolat (solubles).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dolce_Gusto</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolce_Gusto</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Comparaison avec Nespresso</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les capsules Nespresso sont en aluminium, celles du système Dolce Gusto sont presque entièrement en plastique souple (seul l'opercule inférieur est en aluminium mince, destiné à être transpercé lors de la mise en pression par les picots de la douchette placée juste au-dessous) ; les capsules Dolce Gusto sont plus grandes, contiennent plus de café (8 g pour Dolce Gusto, au lieu de 5 g pour Nespresso). Elles sont également d'une plus grande complexité.
 </t>
